--- a/biology/Zoologie/Caerostris_darwini/Caerostris_darwini.xlsx
+++ b/biology/Zoologie/Caerostris_darwini/Caerostris_darwini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caerostris darwini est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caerostris darwini est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1]. Elle a été découverte en 2009 dans le parc national d'Andasibe-Mantadia et observée dans le parc national de Ranomafana[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle a été découverte en 2009 dans le parc national d'Andasibe-Mantadia et observée dans le parc national de Ranomafana.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles sont beaucoup plus petits que les femelles. Les mâles mesurent de 5,7 à 6,1 mm et les femelles de 17,9 à 22 mm[2]. Cette araignée peut se confondre à l'ex-croissance du bois pour se camoufler lorsqu'elle est en inactivité.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles sont beaucoup plus petits que les femelles. Les mâles mesurent de 5,7 à 6,1 mm et les femelles de 17,9 à 22 mm. Cette araignée peut se confondre à l'ex-croissance du bois pour se camoufler lorsqu'elle est en inactivité.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Toile</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa toile est la plus résistante des toiles d'araignées connues à ce jour, jusqu'à 2 fois plus qu'aucune autre toile et jusqu'à dix fois plus résistante qu'une fibre de kevlar de même proportions[3].
-Cette araignée tisse sa toile au dessus de cours d'eau[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa toile est la plus résistante des toiles d'araignées connues à ce jour, jusqu'à 2 fois plus qu'aucune autre toile et jusqu'à dix fois plus résistante qu'une fibre de kevlar de même proportions.
+Cette araignée tisse sa toile au dessus de cours d'eau.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été nommée en hommage à Charles Darwin car sa description a été faite précisément 150 ans après la première publication de The Origin of Species le 24 novembre 2009[2],[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été nommée en hommage à Charles Darwin car sa description a été faite précisément 150 ans après la première publication de The Origin of Species le 24 novembre 2009,.
 </t>
         </is>
       </c>
